--- a/OreTesi.xlsx
+++ b/OreTesi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\Tesi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\Tesi\tesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A699C77-DB0E-4410-B8F7-049BCAE2D420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03C97EE-75DC-426C-BE0B-F8000AA70430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="J3" s="3">
         <f>I3-(SUM(C3:C7))</f>
-        <v>6.125</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -461,9 +461,18 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>43917</v>
+      </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
